--- a/data/2020-07-30/texas.xlsx
+++ b/data/2020-07-30/texas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F353E638-CBC2-4531-8310-47A5DDFBEEDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{634962BA-65B7-4456-9D44-E7562AD073C8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24015" windowHeight="10943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="343">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 7/29 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="343">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 7/30 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -818,7 +818,7 @@
     <t>Probable cases are not included in the total case numbers</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 7/29 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 7/30 at 10:45AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -866,7 +866,7 @@
     <t>****</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 7/29 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 7/30 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -878,7 +878,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 7/29 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 7/30 at 3:00PM CST</t>
   </si>
   <si>
     <t>Viral Tests</t>
@@ -919,7 +919,7 @@
     <t>*Average of previous 7 days</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 7/29 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 7/30 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -940,7 +940,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests in Texas as of 7/28 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests in Texas as of 7/29 at 3:00PM CST</t>
   </si>
   <si>
     <t>Antibody Tests</t>
@@ -952,7 +952,7 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 7/29 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 7/30 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -973,7 +973,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 7/29 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 7/30 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -982,7 +982,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 7/29 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 7/30 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -1034,10 +1034,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          33,857</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 7/29 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          34,684</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 7/30 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -1049,7 +1049,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 7/29 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 7/30 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1070,16 +1070,16 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 7/29 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Completed investigations received by DSHS =         6190</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Fatalities as of 7/29 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 7/29 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 7/30 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Completed investigations received by DSHS =         6274</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Fatalities as of 7/30 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 7/30 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -1426,10 +1426,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="C3" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1437,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="C4" s="4">
         <v>6</v>
@@ -1448,10 +1448,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>1566</v>
+        <v>1606</v>
       </c>
       <c r="C5" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1459,10 +1459,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C6" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1470,7 +1470,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
@@ -1492,7 +1492,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C9" s="4">
         <v>13</v>
@@ -1503,10 +1503,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C10" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1514,7 +1514,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C11" s="4">
         <v>3</v>
@@ -1525,7 +1525,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -1536,10 +1536,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="C13" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1558,7 +1558,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="C15" s="4">
         <v>7</v>
@@ -1569,10 +1569,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>3231</v>
+        <v>3375</v>
       </c>
       <c r="C16" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1580,10 +1580,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>31804</v>
+        <v>32486</v>
       </c>
       <c r="C17" s="4">
-        <v>521</v>
+        <v>545</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1591,7 +1591,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
@@ -1613,7 +1613,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C20" s="4">
         <v>2</v>
@@ -1627,7 +1627,7 @@
         <v>693</v>
       </c>
       <c r="C21" s="4">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1635,10 +1635,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>6032</v>
+        <v>6218</v>
       </c>
       <c r="C22" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1646,10 +1646,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>3781</v>
+        <v>3813</v>
       </c>
       <c r="C23" s="4">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1657,7 +1657,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C24" s="4">
         <v>2</v>
@@ -1679,7 +1679,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -1690,7 +1690,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C27" s="4">
         <v>13</v>
@@ -1712,10 +1712,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C29" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1723,7 +1723,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="C30" s="4">
         <v>22</v>
@@ -1734,10 +1734,10 @@
         <v>32</v>
       </c>
       <c r="B31" s="4">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="C31" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1756,10 +1756,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>8777</v>
+        <v>9424</v>
       </c>
       <c r="C33" s="4">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1767,7 +1767,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C34" s="4">
         <v>4</v>
@@ -1778,7 +1778,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C36" s="4">
         <v>5</v>
@@ -1800,7 +1800,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C37" s="4">
         <v>2</v>
@@ -1811,7 +1811,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>850</v>
+        <v>870</v>
       </c>
       <c r="C38" s="4">
         <v>2</v>
@@ -1822,7 +1822,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="4">
-        <v>717</v>
+        <v>746</v>
       </c>
       <c r="C39" s="4">
         <v>4</v>
@@ -1833,7 +1833,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="4">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C40" s="4">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C42" s="4">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
@@ -1877,7 +1877,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>6147</v>
+        <v>6177</v>
       </c>
       <c r="C45" s="4">
         <v>67</v>
@@ -1899,7 +1899,7 @@
         <v>47</v>
       </c>
       <c r="B46" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" s="4">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C47" s="4">
         <v>2</v>
@@ -1921,10 +1921,10 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>1602</v>
+        <v>1635</v>
       </c>
       <c r="C48" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1932,7 +1932,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C49" s="4">
         <v>3</v>
@@ -1946,7 +1946,7 @@
         <v>23</v>
       </c>
       <c r="C50" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1957,7 +1957,7 @@
         <v>189</v>
       </c>
       <c r="C51" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1965,7 +1965,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C52" s="4">
         <v>5</v>
@@ -1976,7 +1976,7 @@
         <v>54</v>
       </c>
       <c r="B53" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C53" s="4">
         <v>2</v>
@@ -1987,7 +1987,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="4">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C54" s="4">
         <v>2</v>
@@ -1998,7 +1998,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="4">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C55" s="4">
         <v>2</v>
@@ -2012,7 +2012,7 @@
         <v>51</v>
       </c>
       <c r="C56" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2031,7 +2031,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C58" s="4">
         <v>5</v>
@@ -2042,10 +2042,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>48028</v>
+        <v>48732</v>
       </c>
       <c r="C59" s="4">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2053,7 +2053,7 @@
         <v>61</v>
       </c>
       <c r="B60" s="4">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C60" s="4">
         <v>4</v>
@@ -2067,7 +2067,7 @@
         <v>522</v>
       </c>
       <c r="C61" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2075,10 +2075,10 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="C62" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2097,10 +2097,10 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>6331</v>
+        <v>6493</v>
       </c>
       <c r="C64" s="4">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2119,7 +2119,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="4">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C66" s="4">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>69</v>
       </c>
       <c r="B68" s="4">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C68" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2152,7 +2152,7 @@
         <v>70</v>
       </c>
       <c r="B69" s="4">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C69" s="4">
         <v>1</v>
@@ -2174,7 +2174,7 @@
         <v>72</v>
       </c>
       <c r="B71" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C71" s="4">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>13807</v>
+        <v>13939</v>
       </c>
       <c r="C72" s="4">
         <v>232</v>
@@ -2196,7 +2196,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>2387</v>
+        <v>2407</v>
       </c>
       <c r="C73" s="4">
         <v>33</v>
@@ -2207,7 +2207,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="4">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="C74" s="4">
         <v>5</v>
@@ -2218,10 +2218,10 @@
         <v>76</v>
       </c>
       <c r="B75" s="4">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C75" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2229,7 +2229,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C76" s="4">
         <v>7</v>
@@ -2240,7 +2240,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C77" s="4">
         <v>13</v>
@@ -2262,7 +2262,7 @@
         <v>80</v>
       </c>
       <c r="B79" s="4">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C79" s="4">
         <v>4</v>
@@ -2284,10 +2284,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>6772</v>
+        <v>6852</v>
       </c>
       <c r="C81" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2295,7 +2295,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="4">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C82" s="4">
         <v>1</v>
@@ -2306,7 +2306,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="4">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="C84" s="4">
         <v>5</v>
@@ -2328,7 +2328,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="4">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>8367</v>
+        <v>8494</v>
       </c>
       <c r="C86" s="4">
         <v>92</v>
@@ -2353,7 +2353,7 @@
         <v>95</v>
       </c>
       <c r="C87" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2361,7 +2361,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="4">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C88" s="4">
         <v>2</v>
@@ -2394,10 +2394,10 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="C91" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2405,10 +2405,10 @@
         <v>93</v>
       </c>
       <c r="B92" s="4">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C92" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2416,10 +2416,10 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>963</v>
+        <v>972</v>
       </c>
       <c r="C93" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2427,10 +2427,10 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>1264</v>
+        <v>1270</v>
       </c>
       <c r="C94" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2438,10 +2438,10 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C95" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2449,10 +2449,10 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>1542</v>
+        <v>1593</v>
       </c>
       <c r="C96" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2463,7 +2463,7 @@
         <v>1162</v>
       </c>
       <c r="C97" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2471,7 +2471,7 @@
         <v>99</v>
       </c>
       <c r="B98" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" s="4">
         <v>1</v>
@@ -2515,10 +2515,10 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>786</v>
+        <v>800</v>
       </c>
       <c r="C102" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2526,10 +2526,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>67660</v>
+        <v>69126</v>
       </c>
       <c r="C103" s="4">
-        <v>1182</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2537,7 +2537,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="C104" s="4">
         <v>22</v>
@@ -2548,7 +2548,7 @@
         <v>106</v>
       </c>
       <c r="B105" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C105" s="4">
         <v>0</v>
@@ -2559,7 +2559,7 @@
         <v>107</v>
       </c>
       <c r="B106" s="4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C106" s="4">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>4245</v>
+        <v>4276</v>
       </c>
       <c r="C107" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2581,7 +2581,7 @@
         <v>109</v>
       </c>
       <c r="B108" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C108" s="4">
         <v>0</v>
@@ -2592,7 +2592,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="C109" s="4">
         <v>8</v>
@@ -2603,10 +2603,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>16088</v>
+        <v>16375</v>
       </c>
       <c r="C110" s="4">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2614,7 +2614,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="4">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
@@ -2625,7 +2625,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="4">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C112" s="4">
         <v>4</v>
@@ -2636,10 +2636,10 @@
         <v>114</v>
       </c>
       <c r="B113" s="4">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="C113" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2647,7 +2647,7 @@
         <v>115</v>
       </c>
       <c r="B114" s="4">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C114" s="4">
         <v>1</v>
@@ -2658,7 +2658,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C115" s="4">
         <v>4</v>
@@ -2669,7 +2669,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="4">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C116" s="4">
         <v>3</v>
@@ -2694,7 +2694,7 @@
         <v>1010</v>
       </c>
       <c r="C118" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2702,7 +2702,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C119" s="4">
         <v>2</v>
@@ -2713,7 +2713,7 @@
         <v>121</v>
       </c>
       <c r="B120" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" s="4">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>122</v>
       </c>
       <c r="B121" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C121" s="4">
         <v>0</v>
@@ -2735,10 +2735,10 @@
         <v>123</v>
       </c>
       <c r="B122" s="4">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="C122" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2746,10 +2746,10 @@
         <v>124</v>
       </c>
       <c r="B123" s="4">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C123" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2768,10 +2768,10 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>5321</v>
+        <v>5369</v>
       </c>
       <c r="C125" s="4">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2779,7 +2779,7 @@
         <v>127</v>
       </c>
       <c r="B126" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C126" s="4">
         <v>1</v>
@@ -2790,10 +2790,10 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="C127" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2801,10 +2801,10 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>1403</v>
+        <v>1432</v>
       </c>
       <c r="C128" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2823,7 +2823,7 @@
         <v>131</v>
       </c>
       <c r="B130" s="4">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="C130" s="4">
         <v>3</v>
@@ -2834,10 +2834,10 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>1617</v>
+        <v>1681</v>
       </c>
       <c r="C131" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2845,7 +2845,7 @@
         <v>133</v>
       </c>
       <c r="B132" s="4">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C132" s="4">
         <v>1</v>
@@ -2878,10 +2878,10 @@
         <v>136</v>
       </c>
       <c r="B135" s="4">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="C135" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2911,7 +2911,7 @@
         <v>139</v>
       </c>
       <c r="B138" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C138" s="4">
         <v>0</v>
@@ -2922,10 +2922,10 @@
         <v>140</v>
       </c>
       <c r="B139" s="4">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="C139" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2944,7 +2944,7 @@
         <v>142</v>
       </c>
       <c r="B141" s="4">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C141" s="4">
         <v>1</v>
@@ -2955,7 +2955,7 @@
         <v>143</v>
       </c>
       <c r="B142" s="4">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="C142" s="4">
         <v>16</v>
@@ -2966,10 +2966,10 @@
         <v>144</v>
       </c>
       <c r="B143" s="4">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C143" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2977,10 +2977,10 @@
         <v>145</v>
       </c>
       <c r="B144" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C144" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2988,10 +2988,10 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C145" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2999,10 +2999,10 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C146" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3010,7 +3010,7 @@
         <v>148</v>
       </c>
       <c r="B147" s="4">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C147" s="4">
         <v>1</v>
@@ -3021,10 +3021,10 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C148" s="4">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3032,7 +3032,7 @@
         <v>150</v>
       </c>
       <c r="B149" s="4">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C149" s="4">
         <v>3</v>
@@ -3054,7 +3054,7 @@
         <v>152</v>
       </c>
       <c r="B151" s="4">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="C151" s="4">
         <v>1</v>
@@ -3087,10 +3087,10 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>5254</v>
+        <v>5328</v>
       </c>
       <c r="C154" s="4">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3098,7 +3098,7 @@
         <v>156</v>
       </c>
       <c r="B155" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C155" s="4">
         <v>4</v>
@@ -3109,7 +3109,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C160" s="4">
         <v>20</v>
@@ -3164,10 +3164,10 @@
         <v>162</v>
       </c>
       <c r="B161" s="4">
-        <v>1390</v>
+        <v>1730</v>
       </c>
       <c r="C161" s="4">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3175,7 +3175,7 @@
         <v>163</v>
       </c>
       <c r="B162" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C162" s="4">
         <v>1</v>
@@ -3186,10 +3186,10 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>4108</v>
+        <v>4192</v>
       </c>
       <c r="C163" s="4">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3208,10 +3208,10 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="C165" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3230,10 +3230,10 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>1364</v>
+        <v>1476</v>
       </c>
       <c r="C167" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3241,10 +3241,10 @@
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C168" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3263,7 +3263,7 @@
         <v>171</v>
       </c>
       <c r="B170" s="4">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C170" s="4">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>172</v>
       </c>
       <c r="B171" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C171" s="4">
         <v>1</v>
@@ -3285,10 +3285,10 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>5852</v>
+        <v>5990</v>
       </c>
       <c r="C172" s="4">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3296,10 +3296,10 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="C173" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3307,7 +3307,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C174" s="4">
         <v>1</v>
@@ -3329,10 +3329,10 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>936</v>
+        <v>957</v>
       </c>
       <c r="C176" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3340,10 +3340,10 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>734</v>
+        <v>751</v>
       </c>
       <c r="C177" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3373,10 +3373,10 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>8559</v>
+        <v>8792</v>
       </c>
       <c r="C180" s="4">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3387,7 +3387,7 @@
         <v>78</v>
       </c>
       <c r="C181" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3406,7 +3406,7 @@
         <v>184</v>
       </c>
       <c r="B183" s="4">
-        <v>945</v>
+        <v>999</v>
       </c>
       <c r="C183" s="4">
         <v>15</v>
@@ -3417,10 +3417,10 @@
         <v>185</v>
       </c>
       <c r="B184" s="4">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C184" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3428,10 +3428,10 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C185" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3439,10 +3439,10 @@
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C186" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3450,7 +3450,7 @@
         <v>188</v>
       </c>
       <c r="B187" s="4">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C187" s="4">
         <v>7</v>
@@ -3472,10 +3472,10 @@
         <v>190</v>
       </c>
       <c r="B189" s="4">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="C189" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3483,10 +3483,10 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>3419</v>
+        <v>3454</v>
       </c>
       <c r="C190" s="4">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3494,7 +3494,7 @@
         <v>192</v>
       </c>
       <c r="B191" s="4">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C191" s="4">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>193</v>
       </c>
       <c r="B192" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C192" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3516,10 +3516,10 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>1505</v>
+        <v>1528</v>
       </c>
       <c r="C193" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3538,7 +3538,7 @@
         <v>196</v>
       </c>
       <c r="B195" s="4">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C195" s="4">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>198</v>
       </c>
       <c r="B197" s="4">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C197" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3571,7 +3571,7 @@
         <v>199</v>
       </c>
       <c r="B198" s="4">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C200" s="4">
         <v>1</v>
@@ -3604,10 +3604,10 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>699</v>
+        <v>718</v>
       </c>
       <c r="C201" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3615,7 +3615,7 @@
         <v>203</v>
       </c>
       <c r="B202" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C202" s="4">
         <v>1</v>
@@ -3626,10 +3626,10 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C203" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3659,10 +3659,10 @@
         <v>207</v>
       </c>
       <c r="B206" s="4">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C206" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3703,7 +3703,7 @@
         <v>211</v>
       </c>
       <c r="B210" s="4">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="C210" s="4">
         <v>1</v>
@@ -3714,7 +3714,7 @@
         <v>212</v>
       </c>
       <c r="B211" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C211" s="4">
         <v>0</v>
@@ -3725,10 +3725,10 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C212" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3736,7 +3736,7 @@
         <v>214</v>
       </c>
       <c r="B213" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C213" s="4">
         <v>0</v>
@@ -3747,10 +3747,10 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>2222</v>
+        <v>2251</v>
       </c>
       <c r="C214" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3758,7 +3758,7 @@
         <v>216</v>
       </c>
       <c r="B215" s="4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C215" s="4">
         <v>0</v>
@@ -3769,10 +3769,10 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>1761</v>
+        <v>1784</v>
       </c>
       <c r="C216" s="4">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3813,7 +3813,7 @@
         <v>221</v>
       </c>
       <c r="B220" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C220" s="4">
         <v>1</v>
@@ -3824,7 +3824,7 @@
         <v>222</v>
       </c>
       <c r="B221" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C221" s="4">
         <v>2</v>
@@ -3835,10 +3835,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>26315</v>
+        <v>27151</v>
       </c>
       <c r="C222" s="4">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3846,10 +3846,10 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>1036</v>
+        <v>1049</v>
       </c>
       <c r="C223" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3868,10 +3868,10 @@
         <v>226</v>
       </c>
       <c r="B225" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C225" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3890,10 +3890,10 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>1123</v>
+        <v>1141</v>
       </c>
       <c r="C227" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3901,10 +3901,10 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>1505</v>
+        <v>1512</v>
       </c>
       <c r="C228" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3912,10 +3912,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>19952</v>
+        <v>20187</v>
       </c>
       <c r="C229" s="4">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3923,7 +3923,7 @@
         <v>231</v>
       </c>
       <c r="B230" s="4">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C230" s="4">
         <v>2</v>
@@ -3934,10 +3934,10 @@
         <v>232</v>
       </c>
       <c r="B231" s="4">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C231" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -3945,7 +3945,7 @@
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C232" s="4">
         <v>2</v>
@@ -3956,7 +3956,7 @@
         <v>234</v>
       </c>
       <c r="B233" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C233" s="4">
         <v>1</v>
@@ -3967,7 +3967,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C234" s="4">
         <v>3</v>
@@ -3989,10 +3989,10 @@
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C236" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4000,10 +4000,10 @@
         <v>238</v>
       </c>
       <c r="B237" s="4">
-        <v>2960</v>
+        <v>3120</v>
       </c>
       <c r="C237" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4011,10 +4011,10 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>2757</v>
+        <v>2772</v>
       </c>
       <c r="C238" s="4">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4022,10 +4022,10 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C239" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4033,7 +4033,7 @@
         <v>241</v>
       </c>
       <c r="B240" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C240" s="4">
         <v>1</v>
@@ -4047,7 +4047,7 @@
         <v>452</v>
       </c>
       <c r="C241" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4055,10 +4055,10 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>5396</v>
+        <v>5676</v>
       </c>
       <c r="C242" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4066,10 +4066,10 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C243" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4088,7 +4088,7 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="C245" s="4">
         <v>9</v>
@@ -4099,7 +4099,7 @@
         <v>247</v>
       </c>
       <c r="B246" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C246" s="4">
         <v>1</v>
@@ -4110,7 +4110,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="C247" s="4">
         <v>18</v>
@@ -4121,10 +4121,10 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>5433</v>
+        <v>5551</v>
       </c>
       <c r="C248" s="4">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4132,10 +4132,10 @@
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C249" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4143,7 +4143,7 @@
         <v>251</v>
       </c>
       <c r="B250" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C250" s="4">
         <v>1</v>
@@ -4154,10 +4154,10 @@
         <v>252</v>
       </c>
       <c r="B251" s="4">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C251" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4165,10 +4165,10 @@
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C252" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4176,7 +4176,7 @@
         <v>254</v>
       </c>
       <c r="B253" s="4">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C253" s="4">
         <v>1</v>
@@ -4187,7 +4187,7 @@
         <v>255</v>
       </c>
       <c r="B254" s="4">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C254" s="4">
         <v>3</v>
@@ -4198,7 +4198,7 @@
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C255" s="4">
         <v>1</v>
@@ -4209,10 +4209,10 @@
         <v>257</v>
       </c>
       <c r="B256" s="4">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C256" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4231,10 +4231,10 @@
         <v>259</v>
       </c>
       <c r="B258" s="4">
-        <v>403307</v>
+        <v>412107</v>
       </c>
       <c r="C258" s="4">
-        <v>6190</v>
+        <v>6274</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
@@ -4260,8 +4260,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D34" sqref="D34"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C5"/>
+      <selection activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4294,10 +4294,10 @@
         <v>330</v>
       </c>
       <c r="B3" s="14">
-        <v>14258</v>
-      </c>
-      <c r="C3" s="20">
-        <v>42.112413975999999</v>
+        <v>14359</v>
+      </c>
+      <c r="C3" s="15">
+        <v>41.399492561000002</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4305,10 +4305,10 @@
         <v>331</v>
       </c>
       <c r="B4" s="14">
-        <v>18935</v>
-      </c>
-      <c r="C4" s="20">
-        <v>55.926396314000002</v>
+        <v>19607</v>
+      </c>
+      <c r="C4" s="15">
+        <v>56.530388651999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4316,10 +4316,10 @@
         <v>258</v>
       </c>
       <c r="B5" s="14">
-        <v>664</v>
-      </c>
-      <c r="C5" s="20">
-        <v>1.9611897097</v>
+        <v>718</v>
+      </c>
+      <c r="C5" s="15">
+        <v>2.0701187868000002</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4327,7 +4327,7 @@
         <v>259</v>
       </c>
       <c r="B6" s="14">
-        <v>33857</v>
+        <v>34684</v>
       </c>
       <c r="C6" s="15">
         <v>100</v>
@@ -4372,7 +4372,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="F24" sqref="F24"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3:C8"/>
     </sheetView>
   </sheetViews>
@@ -4406,10 +4406,10 @@
         <v>334</v>
       </c>
       <c r="B3" s="14">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C3" s="20">
-        <v>2.0616120743000002</v>
+        <v>2.0182216583999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4417,10 +4417,10 @@
         <v>335</v>
       </c>
       <c r="B4" s="14">
-        <v>4442</v>
+        <v>4631</v>
       </c>
       <c r="C4" s="20">
-        <v>13.119886581999999</v>
+        <v>13.351977857</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4428,10 +4428,10 @@
         <v>336</v>
       </c>
       <c r="B5" s="14">
-        <v>13589</v>
+        <v>13864</v>
       </c>
       <c r="C5" s="20">
-        <v>40.136456271999997</v>
+        <v>39.972321532000002</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4439,10 +4439,10 @@
         <v>337</v>
       </c>
       <c r="B6" s="14">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C6" s="20">
-        <v>0.46076143780000001</v>
+        <v>0.46419098139999998</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4450,10 +4450,10 @@
         <v>338</v>
       </c>
       <c r="B7" s="14">
-        <v>8874</v>
+        <v>9164</v>
       </c>
       <c r="C7" s="20">
-        <v>26.210237174</v>
+        <v>26.421404681999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4461,10 +4461,10 @@
         <v>258</v>
       </c>
       <c r="B8" s="14">
-        <v>6098</v>
+        <v>6164</v>
       </c>
       <c r="C8" s="20">
-        <v>18.011046459999999</v>
+        <v>17.771883289000002</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4472,7 +4472,7 @@
         <v>259</v>
       </c>
       <c r="B9" s="14">
-        <v>33857</v>
+        <v>34684</v>
       </c>
       <c r="C9" s="15">
         <v>100</v>
@@ -4517,8 +4517,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D34" sqref="D34"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C15"/>
+      <selection activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4554,7 +4554,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="20">
-        <v>3.2310177699999998E-2</v>
+        <v>3.1877590099999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4565,7 +4565,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="20">
-        <v>3.2310177699999998E-2</v>
+        <v>3.1877590099999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4573,10 +4573,10 @@
         <v>316</v>
       </c>
       <c r="B5" s="16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="20">
-        <v>0.14539579969999999</v>
+        <v>0.1115715652</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4584,10 +4584,10 @@
         <v>317</v>
       </c>
       <c r="B6" s="16">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="20">
-        <v>0.84006462039999996</v>
+        <v>0.84475613640000002</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4598,7 +4598,7 @@
         <v>131</v>
       </c>
       <c r="C7" s="20">
-        <v>2.1163166396999999</v>
+        <v>2.0879821486000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4606,10 +4606,10 @@
         <v>319</v>
       </c>
       <c r="B8" s="16">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C8" s="20">
-        <v>5.5088852989000001</v>
+        <v>5.5945170544999998</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4617,10 +4617,10 @@
         <v>320</v>
       </c>
       <c r="B9" s="16">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="C9" s="20">
-        <v>11.13085622</v>
+        <v>11.268728083999999</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4628,10 +4628,10 @@
         <v>321</v>
       </c>
       <c r="B10" s="16">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="C10" s="20">
-        <v>9.1760904685</v>
+        <v>9.1329295505000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4639,10 +4639,10 @@
         <v>322</v>
       </c>
       <c r="B11" s="16">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C11" s="20">
-        <v>11.534733441</v>
+        <v>11.412177239</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4650,10 +4650,10 @@
         <v>323</v>
       </c>
       <c r="B12" s="16">
-        <v>782</v>
+        <v>815</v>
       </c>
       <c r="C12" s="20">
-        <v>12.633279483000001</v>
+        <v>12.990117947</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4661,10 +4661,10 @@
         <v>324</v>
       </c>
       <c r="B13" s="16">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="C13" s="20">
-        <v>12.326332795000001</v>
+        <v>12.240994581000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4672,10 +4672,10 @@
         <v>325</v>
       </c>
       <c r="B14" s="16">
-        <v>2137</v>
+        <v>2149</v>
       </c>
       <c r="C14" s="20">
-        <v>34.523424878999997</v>
+        <v>34.252470512999999</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4694,7 +4694,7 @@
         <v>259</v>
       </c>
       <c r="B16" s="16">
-        <v>6190</v>
+        <v>6274</v>
       </c>
       <c r="C16" s="15">
         <v>100</v>
@@ -4739,7 +4739,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="F24" sqref="F24"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
@@ -4773,10 +4773,10 @@
         <v>330</v>
       </c>
       <c r="B3" s="16">
-        <v>2512</v>
+        <v>2543</v>
       </c>
       <c r="C3" s="20">
-        <v>40.581583199000001</v>
+        <v>40.532355754000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4784,10 +4784,10 @@
         <v>331</v>
       </c>
       <c r="B4" s="16">
-        <v>3678</v>
+        <v>3731</v>
       </c>
       <c r="C4" s="20">
-        <v>59.418416800999999</v>
+        <v>59.467644245999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4806,7 +4806,7 @@
         <v>259</v>
       </c>
       <c r="B6" s="16">
-        <v>6190</v>
+        <v>6274</v>
       </c>
       <c r="C6" s="15">
         <v>100</v>
@@ -4851,8 +4851,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D34" sqref="D34"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C8"/>
+      <selection activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4885,10 +4885,10 @@
         <v>334</v>
       </c>
       <c r="B3" s="14">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C3" s="20">
-        <v>2.5525040388</v>
+        <v>0.1115715652</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4899,7 +4899,7 @@
         <v>866</v>
       </c>
       <c r="C4" s="20">
-        <v>13.990306947000001</v>
+        <v>13.898629264</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4907,10 +4907,10 @@
         <v>336</v>
       </c>
       <c r="B5" s="14">
-        <v>2965</v>
+        <v>3060</v>
       </c>
       <c r="C5" s="20">
-        <v>47.899838449000001</v>
+        <v>48.772712783000003</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4918,10 +4918,10 @@
         <v>337</v>
       </c>
       <c r="B6" s="14">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C6" s="20">
-        <v>0.80775444259999996</v>
+        <v>0.1593879503</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4929,10 +4929,10 @@
         <v>338</v>
       </c>
       <c r="B7" s="14">
-        <v>2147</v>
+        <v>2135</v>
       </c>
       <c r="C7" s="20">
-        <v>34.684975766999997</v>
+        <v>34.077143767999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4943,7 +4943,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="20">
-        <v>6.4620355399999996E-2</v>
+        <v>2.9805546701000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4951,7 +4951,7 @@
         <v>259</v>
       </c>
       <c r="B9" s="14">
-        <v>6190</v>
+        <v>6274</v>
       </c>
       <c r="C9" s="15">
         <v>100</v>
@@ -4992,11 +4992,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="F24" sqref="F24"/>
       <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -5059,14 +5059,14 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
-        <v>0</v>
+      <c r="D4" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
-      <c r="F4" s="7">
-        <v>0</v>
+      <c r="F4" s="7" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -5079,14 +5079,14 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
-        <v>0</v>
+      <c r="D5" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
       </c>
-      <c r="F5" s="7">
-        <v>0</v>
+      <c r="F5" s="7" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -5099,14 +5099,14 @@
       <c r="C6" s="7">
         <v>6</v>
       </c>
-      <c r="D6" s="7">
-        <v>0</v>
+      <c r="D6" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="E6" s="7">
         <v>6</v>
       </c>
-      <c r="F6" s="7">
-        <v>0</v>
+      <c r="F6" s="7" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -5120,13 +5120,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <v>0</v>
       </c>
-      <c r="F7" s="7">
-        <v>1</v>
+      <c r="F7" s="7" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -5280,13 +5280,13 @@
         <v>57</v>
       </c>
       <c r="D15" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="7">
         <v>35</v>
       </c>
       <c r="F15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -5300,7 +5300,7 @@
         <v>57</v>
       </c>
       <c r="D16" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="7">
         <v>0</v>
@@ -5320,7 +5320,7 @@
         <v>63</v>
       </c>
       <c r="D17" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="7">
         <v>8</v>
@@ -5340,7 +5340,7 @@
         <v>82</v>
       </c>
       <c r="D18" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="7">
         <v>20</v>
@@ -5360,7 +5360,7 @@
         <v>108</v>
       </c>
       <c r="D19" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" s="7">
         <v>27</v>
@@ -5380,7 +5380,7 @@
         <v>175</v>
       </c>
       <c r="D20" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="7">
         <v>67</v>
@@ -5400,7 +5400,7 @@
         <v>235</v>
       </c>
       <c r="D21" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="7">
         <v>60</v>
@@ -5420,7 +5420,7 @@
         <v>263</v>
       </c>
       <c r="D22" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="7">
         <v>29</v>
@@ -5440,7 +5440,7 @@
         <v>287</v>
       </c>
       <c r="D23" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="7">
         <v>25</v>
@@ -5460,7 +5460,7 @@
         <v>712</v>
       </c>
       <c r="D24" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="7">
         <v>425</v>
@@ -5480,7 +5480,7 @@
         <v>975</v>
       </c>
       <c r="D25" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" s="7">
         <v>263</v>
@@ -5500,7 +5500,7 @@
         <v>1394</v>
       </c>
       <c r="D26" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="7">
         <v>419</v>
@@ -5520,7 +5520,7 @@
         <v>1731</v>
       </c>
       <c r="D27" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" s="7">
         <v>337</v>
@@ -5540,7 +5540,7 @@
         <v>2048</v>
       </c>
       <c r="D28" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" s="7">
         <v>317</v>
@@ -5560,13 +5560,13 @@
         <v>2552</v>
       </c>
       <c r="D29" s="7">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E29" s="7">
         <v>504</v>
       </c>
       <c r="F29" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -5580,7 +5580,7 @@
         <v>2874</v>
       </c>
       <c r="D30" s="7">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E30" s="7">
         <v>322</v>
@@ -5600,13 +5600,13 @@
         <v>3266</v>
       </c>
       <c r="D31" s="7">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E31" s="7">
         <v>392</v>
       </c>
       <c r="F31" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -5620,13 +5620,13 @@
         <v>3996</v>
       </c>
       <c r="D32" s="7">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E32" s="7">
         <v>730</v>
       </c>
       <c r="F32" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -5640,13 +5640,13 @@
         <v>4665</v>
       </c>
       <c r="D33" s="7">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E33" s="7">
         <v>669</v>
       </c>
       <c r="F33" s="7">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -5660,7 +5660,7 @@
         <v>5324</v>
       </c>
       <c r="D34" s="7">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E34" s="7">
         <v>659</v>
@@ -5680,7 +5680,7 @@
         <v>6112</v>
       </c>
       <c r="D35" s="7">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E35" s="7">
         <v>788</v>
@@ -5700,13 +5700,13 @@
         <v>6793</v>
       </c>
       <c r="D36" s="7">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E36" s="7">
         <v>681</v>
       </c>
       <c r="F36" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -5720,13 +5720,13 @@
         <v>7273</v>
       </c>
       <c r="D37" s="7">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E37" s="7">
         <v>480</v>
       </c>
       <c r="F37" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -5740,13 +5740,13 @@
         <v>8261</v>
       </c>
       <c r="D38" s="7">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E38" s="7">
         <v>988</v>
       </c>
       <c r="F38" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -5760,13 +5760,13 @@
         <v>9353</v>
       </c>
       <c r="D39" s="7">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E39" s="7">
         <v>1092</v>
       </c>
       <c r="F39" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -5780,13 +5780,13 @@
         <v>10230</v>
       </c>
       <c r="D40" s="7">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="E40" s="7">
         <v>877</v>
       </c>
       <c r="F40" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -5800,7 +5800,7 @@
         <v>11671</v>
       </c>
       <c r="D41" s="7">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E41" s="7">
         <v>1441</v>
@@ -5820,13 +5820,13 @@
         <v>12561</v>
       </c>
       <c r="D42" s="7">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="E42" s="7">
         <v>890</v>
       </c>
       <c r="F42" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -5840,13 +5840,13 @@
         <v>13484</v>
       </c>
       <c r="D43" s="7">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="E43" s="7">
         <v>923</v>
       </c>
       <c r="F43" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -5860,13 +5860,13 @@
         <v>13906</v>
       </c>
       <c r="D44" s="7">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="E44" s="7">
         <v>422</v>
       </c>
       <c r="F44" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -5880,13 +5880,13 @@
         <v>14624</v>
       </c>
       <c r="D45" s="7">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="E45" s="7">
         <v>718</v>
       </c>
       <c r="F45" s="7">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -5900,13 +5900,13 @@
         <v>15492</v>
       </c>
       <c r="D46" s="7">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="E46" s="7">
         <v>868</v>
       </c>
       <c r="F46" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -5920,7 +5920,7 @@
         <v>16455</v>
       </c>
       <c r="D47" s="7">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="E47" s="7">
         <v>963</v>
@@ -5940,7 +5940,7 @@
         <v>17371</v>
       </c>
       <c r="D48" s="7">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="E48" s="7">
         <v>916</v>
@@ -5960,7 +5960,7 @@
         <v>18260</v>
       </c>
       <c r="D49" s="7">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="E49" s="7">
         <v>889</v>
@@ -5980,13 +5980,13 @@
         <v>18923</v>
       </c>
       <c r="D50" s="7">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="E50" s="7">
         <v>663</v>
       </c>
       <c r="F50" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6000,13 +6000,13 @@
         <v>19458</v>
       </c>
       <c r="D51" s="7">
-        <v>691</v>
+        <v>668</v>
       </c>
       <c r="E51" s="7">
         <v>535</v>
       </c>
       <c r="F51" s="7">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6020,13 +6020,13 @@
         <v>20196</v>
       </c>
       <c r="D52" s="7">
-        <v>732</v>
+        <v>708</v>
       </c>
       <c r="E52" s="7">
         <v>738</v>
       </c>
       <c r="F52" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6040,13 +6040,13 @@
         <v>21069</v>
       </c>
       <c r="D53" s="7">
-        <v>763</v>
+        <v>738</v>
       </c>
       <c r="E53" s="7">
         <v>873</v>
       </c>
       <c r="F53" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6060,13 +6060,13 @@
         <v>21944</v>
       </c>
       <c r="D54" s="7">
-        <v>802</v>
+        <v>774</v>
       </c>
       <c r="E54" s="7">
         <v>875</v>
       </c>
       <c r="F54" s="7">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6080,7 +6080,7 @@
         <v>22806</v>
       </c>
       <c r="D55" s="7">
-        <v>835</v>
+        <v>807</v>
       </c>
       <c r="E55" s="7">
         <v>862</v>
@@ -6100,7 +6100,7 @@
         <v>23773</v>
       </c>
       <c r="D56" s="7">
-        <v>872</v>
+        <v>844</v>
       </c>
       <c r="E56" s="7">
         <v>967</v>
@@ -6120,13 +6120,13 @@
         <v>24631</v>
       </c>
       <c r="D57" s="7">
-        <v>903</v>
+        <v>874</v>
       </c>
       <c r="E57" s="7">
         <v>858</v>
       </c>
       <c r="F57" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6140,13 +6140,13 @@
         <v>25297</v>
       </c>
       <c r="D58" s="7">
-        <v>930</v>
+        <v>899</v>
       </c>
       <c r="E58" s="7">
         <v>666</v>
       </c>
       <c r="F58" s="7">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6160,13 +6160,13 @@
         <v>26171</v>
       </c>
       <c r="D59" s="7">
-        <v>966</v>
+        <v>933</v>
       </c>
       <c r="E59" s="7">
         <v>874</v>
       </c>
       <c r="F59" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6180,13 +6180,13 @@
         <v>27054</v>
       </c>
       <c r="D60" s="7">
-        <v>991</v>
+        <v>956</v>
       </c>
       <c r="E60" s="7">
         <v>883</v>
       </c>
       <c r="F60" s="7">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6200,13 +6200,13 @@
         <v>28087</v>
       </c>
       <c r="D61" s="7">
-        <v>1027</v>
+        <v>987</v>
       </c>
       <c r="E61" s="7">
         <v>1033</v>
       </c>
       <c r="F61" s="7">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6220,13 +6220,13 @@
         <v>29229</v>
       </c>
       <c r="D62" s="7">
-        <v>1071</v>
+        <v>1030</v>
       </c>
       <c r="E62" s="7">
         <v>1142</v>
       </c>
       <c r="F62" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6240,7 +6240,7 @@
         <v>30522</v>
       </c>
       <c r="D63" s="7">
-        <v>1105</v>
+        <v>1064</v>
       </c>
       <c r="E63" s="7">
         <v>1293</v>
@@ -6260,13 +6260,13 @@
         <v>31548</v>
       </c>
       <c r="D64" s="7">
-        <v>1142</v>
+        <v>1099</v>
       </c>
       <c r="E64" s="7">
         <v>1026</v>
       </c>
       <c r="F64" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6280,13 +6280,13 @@
         <v>32332</v>
       </c>
       <c r="D65" s="7">
-        <v>1173</v>
+        <v>1129</v>
       </c>
       <c r="E65" s="7">
         <v>784</v>
       </c>
       <c r="F65" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6300,7 +6300,7 @@
         <v>33369</v>
       </c>
       <c r="D66" s="7">
-        <v>1203</v>
+        <v>1159</v>
       </c>
       <c r="E66" s="7">
         <v>1037</v>
@@ -6320,13 +6320,13 @@
         <v>34422</v>
       </c>
       <c r="D67" s="7">
-        <v>1236</v>
+        <v>1191</v>
       </c>
       <c r="E67" s="7">
         <v>1053</v>
       </c>
       <c r="F67" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6340,13 +6340,13 @@
         <v>35390</v>
       </c>
       <c r="D68" s="7">
-        <v>1273</v>
+        <v>1226</v>
       </c>
       <c r="E68" s="7">
         <v>968</v>
       </c>
       <c r="F68" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6360,13 +6360,13 @@
         <v>36609</v>
       </c>
       <c r="D69" s="7">
-        <v>1307</v>
+        <v>1259</v>
       </c>
       <c r="E69" s="7">
         <v>1219</v>
       </c>
       <c r="F69" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6380,13 +6380,13 @@
         <v>37860</v>
       </c>
       <c r="D70" s="7">
-        <v>1335</v>
+        <v>1286</v>
       </c>
       <c r="E70" s="7">
         <v>1251</v>
       </c>
       <c r="F70" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6400,13 +6400,13 @@
         <v>38869</v>
       </c>
       <c r="D71" s="7">
-        <v>1363</v>
+        <v>1312</v>
       </c>
       <c r="E71" s="7">
         <v>1009</v>
       </c>
       <c r="F71" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6420,13 +6420,13 @@
         <v>39869</v>
       </c>
       <c r="D72" s="7">
-        <v>1399</v>
+        <v>1345</v>
       </c>
       <c r="E72" s="7">
         <v>1000</v>
       </c>
       <c r="F72" s="7">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6440,13 +6440,13 @@
         <v>41048</v>
       </c>
       <c r="D73" s="7">
-        <v>1433</v>
+        <v>1377</v>
       </c>
       <c r="E73" s="7">
         <v>1179</v>
       </c>
       <c r="F73" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6460,13 +6460,13 @@
         <v>42403</v>
       </c>
       <c r="D74" s="7">
-        <v>1476</v>
+        <v>1418</v>
       </c>
       <c r="E74" s="7">
         <v>1355</v>
       </c>
       <c r="F74" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6480,7 +6480,7 @@
         <v>43851</v>
       </c>
       <c r="D75" s="7">
-        <v>1507</v>
+        <v>1449</v>
       </c>
       <c r="E75" s="7">
         <v>1448</v>
@@ -6500,13 +6500,13 @@
         <v>45198</v>
       </c>
       <c r="D76" s="7">
-        <v>1551</v>
+        <v>1489</v>
       </c>
       <c r="E76" s="7">
         <v>1347</v>
       </c>
       <c r="F76" s="7">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6520,13 +6520,13 @@
         <v>46999</v>
       </c>
       <c r="D77" s="7">
-        <v>1582</v>
+        <v>1519</v>
       </c>
       <c r="E77" s="7">
         <v>1801</v>
       </c>
       <c r="F77" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6540,13 +6540,13 @@
         <v>47784</v>
       </c>
       <c r="D78" s="7">
-        <v>1609</v>
+        <v>1544</v>
       </c>
       <c r="E78" s="7">
         <v>785</v>
       </c>
       <c r="F78" s="7">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6560,7 +6560,7 @@
         <v>48693</v>
       </c>
       <c r="D79" s="7">
-        <v>1631</v>
+        <v>1566</v>
       </c>
       <c r="E79" s="7">
         <v>909</v>
@@ -6580,13 +6580,13 @@
         <v>49912</v>
       </c>
       <c r="D80" s="7">
-        <v>1661</v>
+        <v>1594</v>
       </c>
       <c r="E80" s="7">
         <v>1219</v>
       </c>
       <c r="F80" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6600,13 +6600,13 @@
         <v>51323</v>
       </c>
       <c r="D81" s="7">
-        <v>1683</v>
+        <v>1615</v>
       </c>
       <c r="E81" s="7">
         <v>1411</v>
       </c>
       <c r="F81" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6620,13 +6620,13 @@
         <v>52268</v>
       </c>
       <c r="D82" s="7">
-        <v>1709</v>
+        <v>1639</v>
       </c>
       <c r="E82" s="7">
         <v>945</v>
       </c>
       <c r="F82" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6640,7 +6640,7 @@
         <v>53449</v>
       </c>
       <c r="D83" s="7">
-        <v>1738</v>
+        <v>1668</v>
       </c>
       <c r="E83" s="7">
         <v>1181</v>
@@ -6660,7 +6660,7 @@
         <v>54509</v>
       </c>
       <c r="D84" s="7">
-        <v>1753</v>
+        <v>1683</v>
       </c>
       <c r="E84" s="7">
         <v>1060</v>
@@ -6680,13 +6680,13 @@
         <v>55348</v>
       </c>
       <c r="D85" s="7">
-        <v>1788</v>
+        <v>1715</v>
       </c>
       <c r="E85" s="7">
         <v>839</v>
       </c>
       <c r="F85" s="7">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6700,7 +6700,7 @@
         <v>55971</v>
       </c>
       <c r="D86" s="7">
-        <v>1819</v>
+        <v>1746</v>
       </c>
       <c r="E86" s="7">
         <v>623</v>
@@ -6720,13 +6720,13 @@
         <v>56560</v>
       </c>
       <c r="D87" s="7">
-        <v>1842</v>
+        <v>1766</v>
       </c>
       <c r="E87" s="7">
         <v>589</v>
       </c>
       <c r="F87" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6740,13 +6740,13 @@
         <v>57921</v>
       </c>
       <c r="D88" s="7">
-        <v>1865</v>
+        <v>1788</v>
       </c>
       <c r="E88" s="7">
         <v>1361</v>
       </c>
       <c r="F88" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6760,13 +6760,13 @@
         <v>59776</v>
       </c>
       <c r="D89" s="7">
-        <v>1897</v>
+        <v>1819</v>
       </c>
       <c r="E89" s="7">
         <v>1855</v>
       </c>
       <c r="F89" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6780,13 +6780,13 @@
         <v>61006</v>
       </c>
       <c r="D90" s="7">
-        <v>1933</v>
+        <v>1854</v>
       </c>
       <c r="E90" s="7">
         <v>1230</v>
       </c>
       <c r="F90" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6800,7 +6800,7 @@
         <v>62338</v>
       </c>
       <c r="D91" s="7">
-        <v>1965</v>
+        <v>1886</v>
       </c>
       <c r="E91" s="7">
         <v>1332</v>
@@ -6820,13 +6820,13 @@
         <v>64287</v>
       </c>
       <c r="D92" s="7">
-        <v>1979</v>
+        <v>1899</v>
       </c>
       <c r="E92" s="7">
         <v>1949</v>
       </c>
       <c r="F92" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6840,13 +6840,13 @@
         <v>64880</v>
       </c>
       <c r="D93" s="7">
-        <v>2000</v>
+        <v>1919</v>
       </c>
       <c r="E93" s="7">
         <v>593</v>
       </c>
       <c r="F93" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6860,7 +6860,7 @@
         <v>66568</v>
       </c>
       <c r="D94" s="7">
-        <v>2028</v>
+        <v>1947</v>
       </c>
       <c r="E94" s="7">
         <v>1688</v>
@@ -6880,13 +6880,13 @@
         <v>68271</v>
       </c>
       <c r="D95" s="7">
-        <v>2060</v>
+        <v>1978</v>
       </c>
       <c r="E95" s="7">
         <v>1703</v>
       </c>
       <c r="F95" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6900,13 +6900,13 @@
         <v>69920</v>
       </c>
       <c r="D96" s="7">
-        <v>2082</v>
+        <v>1998</v>
       </c>
       <c r="E96" s="7">
         <v>1649</v>
       </c>
       <c r="F96" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6920,13 +6920,13 @@
         <v>71613</v>
       </c>
       <c r="D97" s="7">
-        <v>2108</v>
+        <v>2022</v>
       </c>
       <c r="E97" s="7">
         <v>1693</v>
       </c>
       <c r="F97" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6940,13 +6940,13 @@
         <v>73553</v>
       </c>
       <c r="D98" s="7">
-        <v>2142</v>
+        <v>2054</v>
       </c>
       <c r="E98" s="7">
         <v>1940</v>
       </c>
       <c r="F98" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6960,13 +6960,13 @@
         <v>74978</v>
       </c>
       <c r="D99" s="7">
-        <v>2162</v>
+        <v>2072</v>
       </c>
       <c r="E99" s="7">
         <v>1425</v>
       </c>
       <c r="F99" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6980,13 +6980,13 @@
         <v>75616</v>
       </c>
       <c r="D100" s="7">
-        <v>2193</v>
+        <v>2102</v>
       </c>
       <c r="E100" s="7">
         <v>638</v>
       </c>
       <c r="F100" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7000,13 +7000,13 @@
         <v>77253</v>
       </c>
       <c r="D101" s="7">
-        <v>2227</v>
+        <v>2135</v>
       </c>
       <c r="E101" s="7">
         <v>1637</v>
       </c>
       <c r="F101" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7020,13 +7020,13 @@
         <v>79757</v>
       </c>
       <c r="D102" s="7">
-        <v>2251</v>
+        <v>2157</v>
       </c>
       <c r="E102" s="7">
         <v>2504</v>
       </c>
       <c r="F102" s="7">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7040,7 +7040,7 @@
         <v>81583</v>
       </c>
       <c r="D103" s="7">
-        <v>2279</v>
+        <v>2185</v>
       </c>
       <c r="E103" s="7">
         <v>1826</v>
@@ -7060,13 +7060,13 @@
         <v>83680</v>
       </c>
       <c r="D104" s="7">
-        <v>2314</v>
+        <v>2217</v>
       </c>
       <c r="E104" s="7">
         <v>2097</v>
       </c>
       <c r="F104" s="7">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7080,13 +7080,13 @@
         <v>86011</v>
       </c>
       <c r="D105" s="7">
-        <v>2354</v>
+        <v>2254</v>
       </c>
       <c r="E105" s="7">
         <v>2331</v>
       </c>
       <c r="F105" s="7">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7100,13 +7100,13 @@
         <v>87854</v>
       </c>
       <c r="D106" s="7">
-        <v>2400</v>
+        <v>2296</v>
       </c>
       <c r="E106" s="7">
         <v>1843</v>
       </c>
       <c r="F106" s="7">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7120,13 +7120,13 @@
         <v>89108</v>
       </c>
       <c r="D107" s="7">
-        <v>2430</v>
+        <v>2325</v>
       </c>
       <c r="E107" s="7">
         <v>1254</v>
       </c>
       <c r="F107" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7140,13 +7140,13 @@
         <v>93206</v>
       </c>
       <c r="D108" s="7">
-        <v>2475</v>
+        <v>2369</v>
       </c>
       <c r="E108" s="7">
         <v>2622</v>
       </c>
       <c r="F108" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7160,7 +7160,7 @@
         <v>96335</v>
       </c>
       <c r="D109" s="7">
-        <v>2512</v>
+        <v>2406</v>
       </c>
       <c r="E109" s="7">
         <v>3129</v>
@@ -7180,13 +7180,13 @@
         <v>99851</v>
       </c>
       <c r="D110" s="7">
-        <v>2554</v>
+        <v>2445</v>
       </c>
       <c r="E110" s="7">
         <v>3516</v>
       </c>
       <c r="F110" s="7">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7200,13 +7200,13 @@
         <v>103305</v>
       </c>
       <c r="D111" s="7">
-        <v>2600</v>
+        <v>2489</v>
       </c>
       <c r="E111" s="7">
         <v>3454</v>
       </c>
       <c r="F111" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7220,13 +7220,13 @@
         <v>107735</v>
       </c>
       <c r="D112" s="7">
-        <v>2648</v>
+        <v>2533</v>
       </c>
       <c r="E112" s="7">
         <v>4430</v>
       </c>
       <c r="F112" s="7">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7240,13 +7240,13 @@
         <v>111601</v>
       </c>
       <c r="D113" s="7">
-        <v>2688</v>
+        <v>2568</v>
       </c>
       <c r="E113" s="7">
         <v>3866</v>
       </c>
       <c r="F113" s="7">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7260,13 +7260,13 @@
         <v>114881</v>
       </c>
       <c r="D114" s="7">
-        <v>2733</v>
+        <v>2609</v>
       </c>
       <c r="E114" s="7">
         <v>3280</v>
       </c>
       <c r="F114" s="7">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7280,13 +7280,13 @@
         <v>120370</v>
       </c>
       <c r="D115" s="7">
-        <v>2774</v>
+        <v>2649</v>
       </c>
       <c r="E115" s="7">
         <v>5489</v>
       </c>
       <c r="F115" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7300,13 +7300,13 @@
         <v>125921</v>
       </c>
       <c r="D116" s="7">
-        <v>2848</v>
+        <v>2714</v>
       </c>
       <c r="E116" s="7">
         <v>5551</v>
       </c>
       <c r="F116" s="7">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7320,7 +7320,7 @@
         <v>131917</v>
       </c>
       <c r="D117" s="7">
-        <v>2906</v>
+        <v>2772</v>
       </c>
       <c r="E117" s="7">
         <v>5996</v>
@@ -7340,13 +7340,13 @@
         <v>137624</v>
       </c>
       <c r="D118" s="7">
-        <v>2973</v>
+        <v>2838</v>
       </c>
       <c r="E118" s="7">
         <v>5707</v>
       </c>
       <c r="F118" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7360,13 +7360,13 @@
         <v>143366</v>
       </c>
       <c r="D119" s="7">
-        <v>3051</v>
+        <v>2914</v>
       </c>
       <c r="E119" s="7">
         <v>5742</v>
       </c>
       <c r="F119" s="7">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7380,13 +7380,13 @@
         <v>148723</v>
       </c>
       <c r="D120" s="7">
-        <v>3139</v>
+        <v>2999</v>
       </c>
       <c r="E120" s="7">
         <v>5357</v>
       </c>
       <c r="F120" s="7">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7400,13 +7400,13 @@
         <v>153011</v>
       </c>
       <c r="D121" s="7">
-        <v>3225</v>
+        <v>3081</v>
       </c>
       <c r="E121" s="7">
         <v>4288</v>
       </c>
       <c r="F121" s="7">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7420,13 +7420,13 @@
         <v>159986</v>
       </c>
       <c r="D122" s="7">
-        <v>3310</v>
+        <v>3164</v>
       </c>
       <c r="E122" s="7">
         <v>6975</v>
       </c>
       <c r="F122" s="7">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7440,13 +7440,13 @@
         <v>168062</v>
       </c>
       <c r="D123" s="7">
-        <v>3399</v>
+        <v>3254</v>
       </c>
       <c r="E123" s="7">
         <v>8076</v>
       </c>
       <c r="F123" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7460,13 +7460,13 @@
         <v>175977</v>
       </c>
       <c r="D124" s="7">
-        <v>3506</v>
+        <v>3358</v>
       </c>
       <c r="E124" s="7">
         <v>7915</v>
       </c>
       <c r="F124" s="7">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7480,13 +7480,13 @@
         <v>183532</v>
       </c>
       <c r="D125" s="7">
-        <v>3629</v>
+        <v>3480</v>
       </c>
       <c r="E125" s="7">
         <v>7555</v>
       </c>
       <c r="F125" s="7">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7500,13 +7500,13 @@
         <v>191790</v>
       </c>
       <c r="D126" s="7">
-        <v>3757</v>
+        <v>3607</v>
       </c>
       <c r="E126" s="7">
         <v>8258</v>
       </c>
       <c r="F126" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7520,13 +7520,13 @@
         <v>195239</v>
       </c>
       <c r="D127" s="7">
-        <v>3869</v>
+        <v>3718</v>
       </c>
       <c r="E127" s="7">
         <v>3449</v>
       </c>
       <c r="F127" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7540,7 +7540,7 @@
         <v>200557</v>
       </c>
       <c r="D128" s="7">
-        <v>3989</v>
+        <v>3838</v>
       </c>
       <c r="E128" s="7">
         <v>5318</v>
@@ -7560,13 +7560,13 @@
         <v>210585</v>
       </c>
       <c r="D129" s="7">
-        <v>4129</v>
+        <v>3976</v>
       </c>
       <c r="E129" s="7">
         <v>10028</v>
       </c>
       <c r="F129" s="7">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7580,13 +7580,13 @@
         <v>220564</v>
       </c>
       <c r="D130" s="7">
-        <v>4285</v>
+        <v>4130</v>
       </c>
       <c r="E130" s="7">
         <v>9979</v>
       </c>
       <c r="F130" s="7">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7600,13 +7600,13 @@
         <v>230346</v>
       </c>
       <c r="D131" s="7">
-        <v>4428</v>
+        <v>4272</v>
       </c>
       <c r="E131" s="7">
         <v>9782</v>
       </c>
       <c r="F131" s="7">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7620,13 +7620,13 @@
         <v>240111</v>
       </c>
       <c r="D132" s="7">
-        <v>4586</v>
+        <v>4428</v>
       </c>
       <c r="E132" s="7">
         <v>9765</v>
       </c>
       <c r="F132" s="7">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7640,13 +7640,13 @@
         <v>250462</v>
       </c>
       <c r="D133" s="7">
-        <v>4733</v>
+        <v>4580</v>
       </c>
       <c r="E133" s="7">
         <v>10351</v>
       </c>
       <c r="F133" s="7">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7660,13 +7660,13 @@
         <v>258658</v>
       </c>
       <c r="D134" s="7">
-        <v>4911</v>
+        <v>4752</v>
       </c>
       <c r="E134" s="7">
         <v>8196</v>
       </c>
       <c r="F134" s="7">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7680,13 +7680,13 @@
         <v>264313</v>
       </c>
       <c r="D135" s="7">
-        <v>5063</v>
+        <v>4914</v>
       </c>
       <c r="E135" s="7">
         <v>5655</v>
       </c>
       <c r="F135" s="7">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7700,13 +7700,13 @@
         <v>271574</v>
       </c>
       <c r="D136" s="7">
-        <v>5240</v>
+        <v>5095</v>
       </c>
       <c r="E136" s="7">
         <v>10745</v>
       </c>
       <c r="F136" s="7">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7720,13 +7720,13 @@
         <v>282365</v>
       </c>
       <c r="D137" s="7">
-        <v>5396</v>
+        <v>5262</v>
       </c>
       <c r="E137" s="7">
         <v>10791</v>
       </c>
       <c r="F137" s="7">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7740,13 +7740,13 @@
         <v>292656</v>
       </c>
       <c r="D138" s="7">
-        <v>5528</v>
+        <v>5411</v>
       </c>
       <c r="E138" s="7">
         <v>10291</v>
       </c>
       <c r="F138" s="7">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7760,13 +7760,13 @@
         <v>307572</v>
       </c>
       <c r="D139" s="7">
-        <v>5649</v>
+        <v>5546</v>
       </c>
       <c r="E139" s="7">
         <v>10256</v>
       </c>
       <c r="F139" s="7">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7780,13 +7780,13 @@
         <v>317730</v>
       </c>
       <c r="D140" s="7">
-        <v>5753</v>
+        <v>5654</v>
       </c>
       <c r="E140" s="7">
         <v>10158</v>
       </c>
       <c r="F140" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7800,13 +7800,13 @@
         <v>325030</v>
       </c>
       <c r="D141" s="7">
-        <v>5854</v>
+        <v>5769</v>
       </c>
       <c r="E141" s="7">
         <v>7300</v>
       </c>
       <c r="F141" s="7">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7820,13 +7820,13 @@
         <v>332434</v>
       </c>
       <c r="D142" s="7">
-        <v>5963</v>
+        <v>5892</v>
       </c>
       <c r="E142" s="7">
         <v>7404</v>
       </c>
       <c r="F142" s="7">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7840,13 +7840,13 @@
         <v>341739</v>
       </c>
       <c r="D143" s="7">
-        <v>6032</v>
+        <v>5988</v>
       </c>
       <c r="E143" s="7">
         <v>9305</v>
       </c>
       <c r="F143" s="7">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7860,13 +7860,13 @@
         <v>351618</v>
       </c>
       <c r="D144" s="7">
-        <v>6099</v>
+        <v>6089</v>
       </c>
       <c r="E144" s="7">
         <v>9879</v>
       </c>
       <c r="F144" s="7">
-        <v>67</v>
+        <v>101</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7880,13 +7880,13 @@
         <v>361125</v>
       </c>
       <c r="D145" s="7">
-        <v>6145</v>
+        <v>6162</v>
       </c>
       <c r="E145" s="7">
         <v>9507</v>
       </c>
       <c r="F145" s="7">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7900,13 +7900,13 @@
         <v>369826</v>
       </c>
       <c r="D146" s="7">
-        <v>6165</v>
+        <v>6209</v>
       </c>
       <c r="E146" s="7">
         <v>8701</v>
       </c>
       <c r="F146" s="7">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7920,13 +7920,13 @@
         <v>375846</v>
       </c>
       <c r="D147" s="7">
-        <v>6178</v>
+        <v>6236</v>
       </c>
       <c r="E147" s="7">
         <v>8112</v>
       </c>
       <c r="F147" s="7">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7940,13 +7940,13 @@
         <v>381656</v>
       </c>
       <c r="D148" s="7">
-        <v>6186</v>
+        <v>6261</v>
       </c>
       <c r="E148" s="7">
         <v>5810</v>
       </c>
       <c r="F148" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7960,13 +7960,13 @@
         <v>385923</v>
       </c>
       <c r="D149" s="7">
-        <v>6190</v>
+        <v>6273</v>
       </c>
       <c r="E149" s="7">
         <v>4267</v>
       </c>
       <c r="F149" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7979,14 +7979,14 @@
       <c r="C150" s="7">
         <v>394265</v>
       </c>
-      <c r="D150" s="7" t="s">
-        <v>270</v>
+      <c r="D150" s="7">
+        <v>6273</v>
       </c>
       <c r="E150" s="7">
         <v>8342</v>
       </c>
-      <c r="F150" s="7" t="s">
-        <v>270</v>
+      <c r="F150" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -7999,31 +7999,51 @@
       <c r="C151" s="7">
         <v>403307</v>
       </c>
-      <c r="D151" s="7" t="s">
-        <v>270</v>
+      <c r="D151" s="7">
+        <v>6274</v>
       </c>
       <c r="E151" s="7">
         <v>9042</v>
       </c>
-      <c r="F151" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="19" t="s">
+      <c r="F151" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B152" s="6">
+        <v>44042</v>
+      </c>
+      <c r="C152" s="7">
+        <v>412107</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E152" s="7">
+        <v>8800</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B153" s="18"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
+      <c r="B154" s="18"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A153:F153"/>
+    <mergeCell ref="A154:F154"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -8036,8 +8056,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D34" sqref="D34"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8062,10 +8082,10 @@
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
-        <v>251346.4</v>
+        <v>260542</v>
       </c>
       <c r="B3" s="8">
-        <v>145771</v>
+        <v>145291</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.3">
@@ -8086,11 +8106,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D34" sqref="D34"/>
+      <pane ySplit="2" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F24" sqref="F24"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -11161,43 +11181,57 @@
       <c r="A119" s="6">
         <v>44041</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>270</v>
+      <c r="B119" s="8">
+        <v>3609474</v>
+      </c>
+      <c r="C119" s="8">
+        <v>239566</v>
       </c>
       <c r="D119" s="8">
         <v>3849040</v>
       </c>
-      <c r="E119" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="H119" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="19" t="s">
+      <c r="E119" s="9">
+        <v>0.12090562881898</v>
+      </c>
+      <c r="F119" s="8">
+        <v>63545</v>
+      </c>
+      <c r="G119" s="8">
+        <v>1078</v>
+      </c>
+      <c r="H119" s="8">
+        <v>64623</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="6">
+        <v>44042</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D120" s="8">
+        <v>3911270</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="19" t="s">
         <v>287</v>
-      </c>
-      <c r="B121" s="18"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="18"/>
-    </row>
-    <row r="122" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="19" t="s">
-        <v>288</v>
       </c>
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
@@ -11207,11 +11241,23 @@
       <c r="G122" s="18"/>
       <c r="H122" s="18"/>
     </row>
+    <row r="123" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A121:H121"/>
     <mergeCell ref="A122:H122"/>
+    <mergeCell ref="A123:H123"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -11224,8 +11270,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D34" sqref="D34"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11253,7 +11299,7 @@
         <v>292</v>
       </c>
       <c r="B3" s="8">
-        <v>117218</v>
+        <v>117567</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -11261,7 +11307,7 @@
         <v>293</v>
       </c>
       <c r="B4" s="8">
-        <v>3731822</v>
+        <v>3793703</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -11269,7 +11315,7 @@
         <v>294</v>
       </c>
       <c r="B5" s="8">
-        <v>3849040</v>
+        <v>3911270</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -11294,8 +11340,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D34" sqref="D34"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11323,7 +11369,7 @@
         <v>298</v>
       </c>
       <c r="B3" s="8">
-        <v>237895</v>
+        <v>239566</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -11331,7 +11377,7 @@
         <v>299</v>
       </c>
       <c r="B4" s="8">
-        <v>11227</v>
+        <v>11430</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -11356,8 +11402,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D34" sqref="D34"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11385,7 +11431,7 @@
         <v>302</v>
       </c>
       <c r="B3" s="4">
-        <v>9595</v>
+        <v>9296</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -11393,7 +11439,7 @@
         <v>303</v>
       </c>
       <c r="B4" s="4">
-        <v>59086</v>
+        <v>54499</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -11401,7 +11447,7 @@
         <v>304</v>
       </c>
       <c r="B5" s="4">
-        <v>12201</v>
+        <v>10906</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -11409,7 +11455,7 @@
         <v>305</v>
       </c>
       <c r="B6" s="4">
-        <v>1362</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -11417,7 +11463,7 @@
         <v>306</v>
       </c>
       <c r="B7" s="4">
-        <v>6035</v>
+        <v>6195</v>
       </c>
     </row>
   </sheetData>
@@ -11431,11 +11477,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D34" sqref="D34"/>
+      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F24" sqref="F24"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -12749,6 +12795,17 @@
       </c>
       <c r="C119" s="4">
         <v>9595</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="2">
+        <v>118</v>
+      </c>
+      <c r="B120" s="6">
+        <v>44042</v>
+      </c>
+      <c r="C120" s="4">
+        <v>9296</v>
       </c>
     </row>
   </sheetData>
@@ -12766,8 +12823,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D34" sqref="D34"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C15"/>
+      <selection activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12800,10 +12857,10 @@
         <v>314</v>
       </c>
       <c r="B3" s="14">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3" s="20">
-        <v>0.40464305760000002</v>
+        <v>0.39787798410000003</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -12811,10 +12868,10 @@
         <v>315</v>
       </c>
       <c r="B4" s="14">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="C4" s="20">
-        <v>1.7987417668000001</v>
+        <v>1.7846845808</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -12822,10 +12879,10 @@
         <v>316</v>
       </c>
       <c r="B5" s="14">
-        <v>1550</v>
+        <v>1569</v>
       </c>
       <c r="C5" s="20">
-        <v>4.5780783884999998</v>
+        <v>4.5236996885999998</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -12833,10 +12890,10 @@
         <v>317</v>
       </c>
       <c r="B6" s="14">
-        <v>6363</v>
+        <v>6516</v>
       </c>
       <c r="C6" s="20">
-        <v>18.793750185</v>
+        <v>18.786760466</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -12844,10 +12901,10 @@
         <v>318</v>
       </c>
       <c r="B7" s="14">
-        <v>6550</v>
+        <v>6749</v>
       </c>
       <c r="C7" s="20">
-        <v>19.346073189999998</v>
+        <v>19.458539961</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -12855,10 +12912,10 @@
         <v>319</v>
       </c>
       <c r="B8" s="14">
-        <v>6150</v>
+        <v>6305</v>
       </c>
       <c r="C8" s="20">
-        <v>18.164633605999999</v>
+        <v>18.178410795000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -12866,10 +12923,10 @@
         <v>320</v>
       </c>
       <c r="B9" s="14">
-        <v>5751</v>
+        <v>5908</v>
       </c>
       <c r="C9" s="20">
-        <v>16.986147621000001</v>
+        <v>17.033790797000002</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -12877,10 +12934,10 @@
         <v>321</v>
       </c>
       <c r="B10" s="14">
-        <v>2227</v>
+        <v>2283</v>
       </c>
       <c r="C10" s="20">
-        <v>6.5776648846999999</v>
+        <v>6.5822857802000003</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -12888,10 +12945,10 @@
         <v>322</v>
       </c>
       <c r="B11" s="14">
-        <v>1602</v>
+        <v>1648</v>
       </c>
       <c r="C11" s="20">
-        <v>4.7316655345000003</v>
+        <v>4.7514704186000003</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -12899,10 +12956,10 @@
         <v>323</v>
       </c>
       <c r="B12" s="14">
-        <v>985</v>
+        <v>1002</v>
       </c>
       <c r="C12" s="20">
-        <v>2.9092949759</v>
+        <v>2.8889401452999999</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -12910,10 +12967,10 @@
         <v>324</v>
       </c>
       <c r="B13" s="14">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="C13" s="20">
-        <v>2.0320760846999999</v>
+        <v>2.0066889631999998</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -12921,10 +12978,10 @@
         <v>325</v>
       </c>
       <c r="B14" s="14">
-        <v>1223</v>
+        <v>1229</v>
       </c>
       <c r="C14" s="20">
-        <v>3.6122515284999999</v>
+        <v>3.5434205973999999</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -12935,7 +12992,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="20">
-        <v>6.4979177099999993E-2</v>
+        <v>6.3429823600000004E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -12943,7 +13000,7 @@
         <v>259</v>
       </c>
       <c r="B16" s="14">
-        <v>33857</v>
+        <v>34684</v>
       </c>
       <c r="C16" s="15">
         <v>100</v>
